--- a/산출물/메뉴구조도.xlsx
+++ b/산출물/메뉴구조도.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANG\Desktop\산출물\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B33C4E-1AC6-426B-A326-6E8F035614C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8055D262-76EC-4D7E-A114-9533B934C13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" tabRatio="468" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="468" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>커뮤니티</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>설정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -330,22 +326,6 @@
   </si>
   <si>
     <t>언어설정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니티 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>색약 색맹들이 구분하기 어려운 색상을 구분할 수 있는 색상으로 변경할 수 있다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니티로 이동할 수 있다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니티 알림을 사용자가 조정할 수 있음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -425,15 +405,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>닉네임 프로필사진 등등 바꿀 수 있다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자가 검색 창구에서 장소를 검색할 수 있다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니팅 이동</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -445,35 +417,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>글 삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 내역 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DM 모든 사용자에게 보내기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>계정 제한</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자가 사용자의 계정을 선택하여 삭제할 수 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니티 사용자가 작성한 글을 삭제할 수 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 신고받은 사용자의 기록을 볼 수 있으며 기록 내용은 댓글,글이 보여야 한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 모든 사용자에게 메시지를 보낼 수 있어야 하며, 공지를 보내면 모든 사용자가 받을 수 있어야 한다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -509,19 +457,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리 목록으로 지역을 출력하여야한다 .사용자가 카테고리를 선택시 글 목록을 이용하여 출력한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB에 저장된 커뮤니티의 글을 불러와 제목, 조회수, 댓글수, 추천수, 작성자를 제공하며 카테고리에 해당되는 글만 출력한다. 글 제목을 클릭 시 본문보기 기능으로 이동한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>글 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 커뮤니티에 글을 작성할 수 있어야 한다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -530,6 +466,91 @@
   </si>
   <si>
     <t>식스센스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자가 사용자의 계정을 선택하여 삭제하거나 정지 기간을 정해 일정 기간 사용 정지를 적용할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 게시판</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 게시판으로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 게시판으로 이동할 수 있다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로게시판 알림을 사용자가 조정할 수 있다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로게시판으로 이동할 수 있다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 목록 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 특정 사용자 또는 전체 사용자에게 메시지를 포함한 DM을 보낼 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 신고가 들어온 글 또는 댓글의 사용자 정보,신고 유형,신고가 들어온 게시글,댓글의 내용을 확인할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 삭제 및 숨김</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 사용자의 게시글을 작성하거나 숨길 수 있으며, 게시글 정보를 확인할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 저장된 경로 게시판의 글을 불러와 제목, 조회수, 댓글수, 추천수, 작성자를 제공하며 카테고리에 해당되는 글만 출력한다. 글 제목을 클릭 시 본문보기 기능으로 이동한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 경로 게시판에 글을 작성할 수 있어야 한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 게시판 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범례</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전도별 색상의 안내가 되어있다. 색상 안내 외의 범례는 구글맵API를 따라간다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>색약 색맹들이 구분하기 어려운 색상을 구분할 수 있는 색상으로
+ 변경할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지로 이동할 수 있다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 목록 조회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임,프로필 사진, 생년월일, 전화번호 를 바꿀 수 있다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +568,7 @@
     <numFmt numFmtId="181" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -959,6 +980,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="27">
@@ -8731,7 +8759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -8834,6 +8862,18 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8861,9 +8901,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8873,15 +8910,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8902,6 +8930,21 @@
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2524">
@@ -12063,89 +12106,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="40" t="str">
         <f>문서명</f>
         <v>메뉴구조도</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="str">
+      <c r="B4" s="51" t="str">
         <f>프로젝트명</f>
         <v>... 구축</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="51" t="str">
         <f>문서번호</f>
         <v>Cap-de-07</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
@@ -12160,10 +12203,10 @@
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="5" t="s">
         <v>8</v>
       </c>
@@ -12184,10 +12227,10 @@
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
@@ -12206,10 +12249,10 @@
       <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="6" t="s">
         <v>45</v>
       </c>
@@ -12222,8 +12265,8 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
@@ -12234,8 +12277,8 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
@@ -12246,8 +12289,8 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
@@ -12258,8 +12301,8 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
@@ -12270,8 +12313,8 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
@@ -12280,8 +12323,8 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
@@ -12290,120 +12333,115 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="9.6">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="9.6">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="9.6">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="9.6">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="9.6">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" s="7" customFormat="1" ht="9.6">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" s="7" customFormat="1" ht="9.6">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" ht="9.6">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" ht="9.6">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" ht="9.6">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A21:H30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E17:F17"/>
@@ -12414,6 +12452,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A21:H30"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12426,10 +12469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -12446,47 +12489,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="40" t="str">
         <f>문서명</f>
         <v>메뉴구조도</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -12560,17 +12603,17 @@
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1">
       <c r="A9" s="58" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>12</v>
@@ -12582,20 +12625,20 @@
         <v>27</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1">
       <c r="A10" s="58"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>12</v>
@@ -12607,7 +12650,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1">
@@ -12615,10 +12658,10 @@
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>12</v>
@@ -12630,7 +12673,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1">
@@ -12638,10 +12681,10 @@
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>12</v>
@@ -12653,7 +12696,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1">
@@ -12661,10 +12704,10 @@
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>12</v>
@@ -12676,7 +12719,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.1" customHeight="1">
@@ -12699,7 +12742,7 @@
         <v>27</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1">
@@ -12722,43 +12765,41 @@
         <v>27</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1">
       <c r="A16" s="58"/>
-      <c r="B16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>77</v>
+      <c r="I16" s="61" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1">
       <c r="A17" s="58"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>12</v>
@@ -12770,20 +12811,20 @@
         <v>27</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1">
       <c r="A18" s="58"/>
-      <c r="B18" s="16"/>
+      <c r="B18" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>50</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D18" s="21"/>
       <c r="E18" s="17" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>12</v>
@@ -12795,18 +12836,18 @@
         <v>27</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1">
       <c r="A19" s="58"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="C19" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="17" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>12</v>
@@ -12818,18 +12859,20 @@
         <v>27</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1">
       <c r="A20" s="58"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="D20" s="21" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>12</v>
@@ -12841,7 +12884,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1">
@@ -12849,10 +12892,10 @@
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>12</v>
@@ -12864,20 +12907,18 @@
         <v>27</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" ht="14.1" customHeight="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="21"/>
       <c r="E22" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>12</v>
@@ -12889,22 +12930,18 @@
         <v>27</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" thickTop="1">
-      <c r="A23" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>89</v>
+    <row r="23" spans="1:9" ht="14.1" customHeight="1">
+      <c r="A23" s="58"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>12</v>
@@ -12912,20 +12949,24 @@
       <c r="G23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="20" t="s">
-        <v>90</v>
+      <c r="H23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.399999999999999">
-      <c r="A24" s="53"/>
-      <c r="B24" s="16"/>
+    <row r="24" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A24" s="58"/>
+      <c r="B24" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="C24" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="D24" s="21"/>
       <c r="E24" s="17" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>12</v>
@@ -12933,19 +12974,27 @@
       <c r="G24" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="26" t="s">
-        <v>91</v>
+      <c r="H24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+    <row r="25" spans="1:9" ht="31.8" thickTop="1">
+      <c r="A25" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="F25" s="22" t="s">
         <v>12</v>
       </c>
@@ -12953,18 +13002,20 @@
         <v>27</v>
       </c>
       <c r="H25" s="22"/>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="31.8" thickBot="1">
+    <row r="26" spans="1:9" ht="31.2">
       <c r="A26" s="53"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="F26" s="22" t="s">
         <v>12</v>
       </c>
@@ -12973,24 +13024,18 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="26" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="47.4" thickTop="1">
-      <c r="A27" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>95</v>
+    <row r="27" spans="1:9" ht="31.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>12</v>
@@ -12998,22 +13043,20 @@
       <c r="G27" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>103</v>
+      <c r="H27" s="22"/>
+      <c r="I27" s="26" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="31.2">
+    <row r="28" spans="1:9" ht="31.8" thickBot="1">
       <c r="A28" s="53"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>98</v>
+      <c r="B28" s="16"/>
+      <c r="C28" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>12</v>
@@ -13021,22 +13064,26 @@
       <c r="G28" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="27" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="31.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
+    <row r="29" spans="1:9" ht="47.4" thickTop="1">
+      <c r="A29" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="D29" s="25" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>12</v>
@@ -13048,18 +13095,18 @@
         <v>27</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.399999999999999">
+    <row r="30" spans="1:9" ht="31.2">
       <c r="A30" s="53"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>12</v>
@@ -13071,18 +13118,18 @@
         <v>27</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="46.8">
+    <row r="31" spans="1:9" ht="31.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17" t="s">
-        <v>100</v>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>12</v>
@@ -13093,18 +13140,20 @@
       <c r="H31" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>101</v>
+      <c r="I31" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="31.8" thickBot="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+    <row r="32" spans="1:9" ht="17.399999999999999">
+      <c r="A32" s="53"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>89</v>
+      </c>
       <c r="F32" s="22" t="s">
         <v>12</v>
       </c>
@@ -13114,14 +13163,37 @@
       <c r="H32" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="26" t="s">
-        <v>102</v>
+      <c r="I32" s="27" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" spans="1:9" ht="47.4" thickBot="1">
+      <c r="A33" s="54"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="B4:I4"/>
@@ -13133,8 +13205,8 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
